--- a/ACG/ACG/Stage01a.xlsx
+++ b/ACG/ACG/Stage01a.xlsx
@@ -135,7 +135,56 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -534,7 +583,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CF15" sqref="CF15"/>
+      <selection activeCell="CM2" sqref="CK2:CM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,7 +605,9 @@
     <col min="85" max="85" width="3.625" bestFit="1" customWidth="1"/>
     <col min="86" max="87" width="2.625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="89" max="100" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="2.625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="91" max="100" width="2.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.15">
@@ -828,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="CL1" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="CM1" s="1">
         <v>0</v>
@@ -3581,39 +3632,39 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="N1:N4 K1:K6 F3:AZ8 A9:AZ9 AZ4:BF9 BD4:BT10 A1:CV1 C2:CV2 A2:AX10 CJ1:CL5 BA3:CV9 K10:CV10">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+  <conditionalFormatting sqref="N1:N4 K1:K6 F3:AZ8 A9:AZ9 AZ4:BF9 BD4:BT10 A2:AX10 BA3:CV9 K10:CV10 A1:CV1 C2:CV2 CJ1:CL5">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL5 BS10:BS12 AL10:AR10 A9:AZ9 AR7:AS9 AR5:AR7 AJ1:CV1 AT10:CV10">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+  <conditionalFormatting sqref="AL2:AL5 BS10:BS12 AL10:AR10 A9:AZ9 AR7:AS9 AR5:AR7 AT10:CV10 AJ1:CV1 CL1:CL3">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
